--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reboots\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7362C-F0B5-4C5C-A78C-89BA6D3156B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596CFA2-F1CB-4D4A-8C04-445A9FF50EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="720" windowWidth="23370" windowHeight="11460" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-16170" yWindow="2175" windowWidth="14880" windowHeight="8520" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
-    <sheet name="connectionMatrix" sheetId="11" r:id="rId2"/>
-    <sheet name="reactors" sheetId="2" r:id="rId3"/>
-    <sheet name="eg reactor sheet" sheetId="12" r:id="rId4"/>
-    <sheet name="connectionMatrixAlternative" sheetId="9" r:id="rId5"/>
-    <sheet name="inputCharacteristics" sheetId="10" r:id="rId6"/>
+    <sheet name="reactors" sheetId="2" r:id="rId2"/>
+    <sheet name="connectionMatrix" sheetId="11" r:id="rId3"/>
+    <sheet name="input_output" sheetId="13" r:id="rId4"/>
+    <sheet name="eg reactor sheet" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,20 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>components</t>
   </si>
   <si>
-    <t>in1</t>
-  </si>
-  <si>
     <t>layer</t>
   </si>
   <si>
-    <t>in2</t>
-  </si>
-  <si>
     <t>upper_bound</t>
   </si>
   <si>
@@ -68,75 +61,21 @@
     <t>reactor1</t>
   </si>
   <si>
-    <t>reactor2</t>
-  </si>
-  <si>
-    <t>reactor3</t>
-  </si>
-  <si>
-    <t>reactor4</t>
-  </si>
-  <si>
-    <t>reactor5</t>
-  </si>
-  <si>
     <t>has_utility</t>
   </si>
   <si>
-    <t>has_seperation</t>
-  </si>
-  <si>
     <t>has_waste</t>
   </si>
   <si>
     <t>capital_investment</t>
   </si>
   <si>
-    <t>has_mixing</t>
-  </si>
-  <si>
-    <t>has_split</t>
-  </si>
-  <si>
-    <t>inputName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">composition </t>
-  </si>
-  <si>
-    <t>input1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input2 </t>
-  </si>
-  <si>
-    <t>a,b</t>
-  </si>
-  <si>
-    <t>x,y</t>
-  </si>
-  <si>
-    <t>0.3,0.7</t>
-  </si>
-  <si>
-    <t>0.1,0.9</t>
-  </si>
-  <si>
-    <t>reactor6</t>
-  </si>
-  <si>
-    <t>has_composition</t>
-  </si>
-  <si>
     <t>process_intervals</t>
   </si>
   <si>
     <t>reactor_name</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>seperation</t>
   </si>
   <si>
@@ -198,13 +137,64 @@
   </si>
   <si>
     <t>mix_culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputs </t>
+  </si>
+  <si>
+    <t>glu</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>equations</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>conversion_factor</t>
+  </si>
+  <si>
+    <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396, prop == glu*0.0008586272965669681+pH*0.00128523604994718, but == glu*0.00343240244820466+pH*-0.007526404480666873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility bounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,8 </t>
+  </si>
+  <si>
+    <t>ace, prop, but</t>
+  </si>
+  <si>
+    <t>prop == 0.266756546744133 * glu</t>
+  </si>
+  <si>
+    <t>prop == 0.282535628259136 * glu</t>
+  </si>
+  <si>
+    <t>prop == 0.267928611976308 * glu</t>
+  </si>
+  <si>
+    <t>prop == 0.376575631424244 * glu</t>
+  </si>
+  <si>
+    <t>prop == 0.235119469454648 * glu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,14 +204,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,10 +359,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -392,14 +373,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -440,13 +444,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -461,8 +465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="695324"/>
-          <a:ext cx="2752725" cy="2619376"/>
+          <a:off x="9163050" y="695323"/>
+          <a:ext cx="2752725" cy="3228977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,6 +530,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>1's in the same colunm indiacte that the outputs of the intervals are mixed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
             <a:t>string -&gt; defined how reject and permate are connected</a:t>
           </a:r>
         </a:p>
@@ -570,23 +583,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728F864E-80DF-4F42-9892-5F25BFCE69C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6120E7E9-D07F-4B73-9A94-E2A628FF69A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,8 +607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="1990725"/>
-          <a:ext cx="2657475" cy="1533524"/>
+          <a:off x="485775" y="1323975"/>
+          <a:ext cx="2752725" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,25 +644,32 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>connect by looking</a:t>
+            <a:t>alternative?? </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> at which streams connect to the reactors (i.e wat are the reactor inputs and how are they connected)</a:t>
+            <a:t>sheet 1: input output intervals </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>2: bolean connector </a:t>
+            <a:t>sheet 2:  reactor intervals </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>3: mass balance conector </a:t>
+            <a:t>sheet 3: connectivity matrix  </a:t>
           </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -955,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,41 +996,38 @@
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1024,22 +1041,19 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1059,16 +1073,13 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1088,16 +1099,13 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1117,16 +1125,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1146,16 +1151,13 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1175,16 +1177,13 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1204,16 +1203,13 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1233,16 +1229,13 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1262,16 +1255,13 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1291,14 +1281,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E13:G13 E2:G11 I2:I11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E13:G13 E2:F11 H2:H11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1307,11 +1294,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>0.26675654674413302</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>0.28253562825913597</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>0.26792861197630802</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>0.376575631424244</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>0.23511946945464801</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C12 C13:D13 E12 D10 I8:I11 H8:H12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,46 +1571,44 @@
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1399,12 +1640,10 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1436,12 +1675,10 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1473,12 +1710,10 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1492,30 +1727,28 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1545,12 +1778,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1582,12 +1813,10 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1619,12 +1848,10 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1656,12 +1883,10 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1693,12 +1918,10 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1730,36 +1953,6 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1794,331 +1987,177 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA90790-245D-4BE1-B6DF-136EF2FF7E2A}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:F8 H2:H8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:G13 C2:E13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F8E89-7B44-47E5-AA46-AA30B8BCAB56}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,374 +2168,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
         <v>0.88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B695A-0D86-4BB9-B587-E34259BE4CFA}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B9:G15 H15 H12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I14">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H7 H8 E8 I2:I9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152796B4-1D17-477F-9B4B-6D874BD25803}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reboots\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596CFA2-F1CB-4D4A-8C04-445A9FF50EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD6124-B14D-4957-987C-87DC42F74D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16170" yWindow="2175" windowWidth="14880" windowHeight="8520" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-20610" yWindow="1845" windowWidth="20730" windowHeight="11160" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -383,17 +383,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1285,7 +1275,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E13:G13 E2:F11 H2:H11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1298,7 +1288,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2133,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F8 H2:H8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reboots\PycharmProjects\Alquimia\excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD6124-B14D-4957-987C-87DC42F74D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954DE16-4793-42AF-BA9D-740F772AE7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1845" windowWidth="20730" windowHeight="11160" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -163,15 +163,6 @@
     <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396, prop == glu*0.0008586272965669681+pH*0.00128523604994718, but == glu*0.00343240244820466+pH*-0.007526404480666873</t>
   </si>
   <si>
-    <t xml:space="preserve">utility bounds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,8 </t>
-  </si>
-  <si>
     <t>ace, prop, but</t>
   </si>
   <si>
@@ -188,6 +179,15 @@
   </si>
   <si>
     <t>prop == 0.235119469454648 * glu</t>
+  </si>
+  <si>
+    <t>utility_bounds</t>
+  </si>
+  <si>
+    <t>[5,8] ; [50,100]</t>
+  </si>
+  <si>
+    <t>pH ; energy</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,22 +971,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1288,24 +1288,24 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1547,21 +1547,21 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1990,18 +1990,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2150,24 +2150,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2191,37 +2191,37 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954DE16-4793-42AF-BA9D-740F772AE7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC171356-7E1B-4673-8693-ED9C455102BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>components</t>
   </si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">glu </t>
   </si>
   <si>
-    <t xml:space="preserve">inputs </t>
-  </si>
-  <si>
     <t>glu</t>
   </si>
   <si>
@@ -188,6 +185,15 @@
   </si>
   <si>
     <t>pH ; energy</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>but</t>
   </si>
 </sst>
 </file>
@@ -965,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1213,11 +1219,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1239,11 +1245,11 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1265,12 +1271,15 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1287,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,22 +1322,22 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1345,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1377,13 +1386,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1409,13 +1418,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1441,13 +1450,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1473,13 +1482,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1505,22 +1514,22 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <v>0</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC171356-7E1B-4673-8693-ED9C455102BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F69E00-331B-4778-BF8F-F9AAE075362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>components</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>but</t>
+  </si>
+  <si>
+    <t>input_glucose</t>
+  </si>
+  <si>
+    <t>acetate</t>
+  </si>
+  <si>
+    <t>propionate</t>
+  </si>
+  <si>
+    <t>buytrate</t>
   </si>
 </sst>
 </file>
@@ -502,7 +514,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> at which streams connect to the reactors (i.e wat are the reactor inputs and how are they connected)</a:t>
+            <a:t> at which streams connect to the next intervall (i.e wat are the reactor inputs and how are they connected to their outputs)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -973,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1297,7 +1309,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,13 +1564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
@@ -1575,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -1596,18 +1609,18 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F69E00-331B-4778-BF8F-F9AAE075362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D8F37-381C-41CE-80D7-6EA859EB86FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="890" windowWidth="14840" windowHeight="9090" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>components</t>
   </si>
@@ -163,21 +163,6 @@
     <t>ace, prop, but</t>
   </si>
   <si>
-    <t>prop == 0.266756546744133 * glu</t>
-  </si>
-  <si>
-    <t>prop == 0.282535628259136 * glu</t>
-  </si>
-  <si>
-    <t>prop == 0.267928611976308 * glu</t>
-  </si>
-  <si>
-    <t>prop == 0.376575631424244 * glu</t>
-  </si>
-  <si>
-    <t>prop == 0.235119469454648 * glu</t>
-  </si>
-  <si>
     <t>utility_bounds</t>
   </si>
   <si>
@@ -206,6 +191,39 @@
   </si>
   <si>
     <t>buytrate</t>
+  </si>
+  <si>
+    <t>ace,prop</t>
+  </si>
+  <si>
+    <t>ace == 0.11318154734119107 * glu, prop == 0.3243641498059202 * glu</t>
+  </si>
+  <si>
+    <t>ace == 0.13339562387182513 * glu, prop == 0.343902159372741 * glu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ace == 0.05379283346627348 * glu, prop == 0.36171553416644237 * glu </t>
+  </si>
+  <si>
+    <t>ace == 0.06646190422527397 * glu, prop == 0.4565216598258217 * glu</t>
+  </si>
+  <si>
+    <t>ace == 0.1452827424579412 * glu, prop == 0.28707449278113295 * glu</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>has_seperation</t>
+  </si>
+  <si>
+    <t>seperation_coef</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
+  </si>
+  <si>
+    <t>[1,0,0]; [0,1,0]</t>
   </si>
 </sst>
 </file>
@@ -227,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +264,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -373,11 +397,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -397,6 +432,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163050" y="695323"/>
-          <a:ext cx="2752725" cy="3228977"/>
+          <a:off x="9775825" y="676273"/>
+          <a:ext cx="2778125" cy="3121027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,7 +1025,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1232,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1284,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1306,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1322,11 +1361,11 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -1349,16 +1388,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1369,10 +1414,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1384,13 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1401,10 +1452,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1416,13 +1467,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1433,10 +1490,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1448,13 +1505,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1465,10 +1528,10 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1480,13 +1543,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1497,10 +1566,10 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1512,13 +1581,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1538,20 +1613,26 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C12 C13:D13 E12 D10 I8:I11 H8:H12">
+  <conditionalFormatting sqref="C12 C13:D13 E12 E10 I8:I11 H8:H12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -1564,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -1609,39 +1690,39 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -1679,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1714,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1748,8 +1829,8 @@
       <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1784,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1817,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D8F37-381C-41CE-80D7-6EA859EB86FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A1C0D-0955-4E06-AF66-3D84E3BDE94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>components</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>[1,0,0]; [0,1,0]</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>permeate</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -436,6 +442,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,6 +1372,7 @@
     <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1431,7 +1441,7 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="K2">
@@ -1469,7 +1479,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>60</v>
       </c>
       <c r="K3">
@@ -1507,7 +1517,7 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="14" t="s">
         <v>60</v>
       </c>
       <c r="K4">
@@ -1545,7 +1555,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="K5">
@@ -1583,7 +1593,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="K6">
@@ -1621,7 +1631,7 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="K7">
@@ -1645,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,11 +1769,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+      <c r="I3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -1794,11 +1804,11 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
+      <c r="I4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1829,11 +1839,11 @@
       <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
+      <c r="I5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -1864,11 +1874,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
+      <c r="I6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -1897,11 +1907,11 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+      <c r="I7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1932,11 +1942,11 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
+      <c r="I8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A1C0D-0955-4E06-AF66-3D84E3BDE94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33041E-7085-49F6-8E06-29BF48F04131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33041E-7085-49F6-8E06-29BF48F04131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4170E7D3-963D-4059-B08B-E3F467BF1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="components" sheetId="1" r:id="rId1"/>
-    <sheet name="reactors" sheetId="2" r:id="rId2"/>
-    <sheet name="connectionMatrix" sheetId="11" r:id="rId3"/>
+    <sheet name="Intervals" sheetId="1" r:id="rId1"/>
+    <sheet name="Reactors" sheetId="2" r:id="rId2"/>
+    <sheet name="ConnectionMatrix" sheetId="11" r:id="rId3"/>
     <sheet name="input_output" sheetId="13" r:id="rId4"/>
     <sheet name="eg reactor sheet" sheetId="12" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>components</t>
   </si>
@@ -157,9 +157,6 @@
     <t>conversion_factor</t>
   </si>
   <si>
-    <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396, prop == glu*0.0008586272965669681+pH*0.00128523604994718, but == glu*0.00343240244820466+pH*-0.007526404480666873</t>
-  </si>
-  <si>
     <t>ace, prop, but</t>
   </si>
   <si>
@@ -220,16 +217,37 @@
     <t>seperation_coef</t>
   </si>
   <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>[1,0,0]; [0,1,0]</t>
-  </si>
-  <si>
-    <t>reject</t>
-  </si>
-  <si>
-    <t>permeate</t>
+    <t>[1,0,0]; [0,1,0]; [0,0,1]</t>
+  </si>
+  <si>
+    <t>[1,0];[0,1]</t>
+  </si>
+  <si>
+    <t>sep1</t>
+  </si>
+  <si>
+    <t>sep2</t>
+  </si>
+  <si>
+    <t>sep3</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>glu, prot</t>
+  </si>
+  <si>
+    <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396+ 0.2*prot , prop == glu*0.0008586272965669681+pH*0.00128523604994718+0.2*prot, but == glu*0.00343240244820466+pH*-0.007526404480666873 + 0.02*prot</t>
+  </si>
+  <si>
+    <t>bool , mix</t>
+  </si>
+  <si>
+    <t>mix</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,23 +515,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2166CD1C-89AD-4CD0-85A6-EA82146B47E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61CD0C8-D2ED-1057-3018-40E59C42A40D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -521,8 +539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9775825" y="676273"/>
-          <a:ext cx="2778125" cy="3121027"/>
+          <a:off x="7759700" y="2419350"/>
+          <a:ext cx="2298700" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,76 +575,122 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>connect by looking</a:t>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>so cool ideas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1) error</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> at which streams connect to the next intervall (i.e wat are the reactor inputs and how are they connected to their outputs)</a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> mesaging while reading the excel</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>0 -&gt; not connencted </a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2° could keep the interval names (in the code) as capital letters -&gt; no replace conflicts no more</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>1 -&gt; connected </a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3° write ALL eqation to the objects, read the equations there in steady of making it messy </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D50F2C-E93D-46D5-95A9-E24286A73041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="635000"/>
+          <a:ext cx="2298700" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>1's in the same colunm indiacte that the outputs of the intervals are mixed</a:t>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>compositions should be</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>string -&gt; defined how reject and permate are connected</a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> as followed </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>options :</a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>components	compostion</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>bool, permeat / reject </a:t>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>     glu, prot	   0.2, 0.8 </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>split, permeate/ reject  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>mix permeate/ reject </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -636,6 +700,151 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2166CD1C-89AD-4CD0-85A6-EA82146B47E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10702925" y="860423"/>
+          <a:ext cx="2778125" cy="4092577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>connect by looking</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> at which streams connect to the next intervall (i.e wat are the reactor inputs and how are they connected to their outputs)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>0 -&gt; not connencted </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>1 -&gt; connected </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>mix in the same colunm indiacte that the outputs of the intervals are mixed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>sep_nr = define which seperation stream goes where</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>split_nr = define which split streqm goes where</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>options :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>bool, split, sep 0 or  1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>can be a combination </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1034,7 +1243,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1106,10 +1315,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1118,16 +1327,16 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1135,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1161,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1187,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1213,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1239,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1262,10 +1471,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1277,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1291,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1303,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1317,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1329,26 +1538,51 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G12" s="13"/>
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E13:G13 E2:F11 H2:H11">
+  <conditionalFormatting sqref="E13:G13 E2:F2 E4:F12 E3 H2:H12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1357,7 +1591,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1383,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -1398,13 +1632,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1424,10 +1658,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1439,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>60</v>
@@ -1462,10 +1696,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1477,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>60</v>
@@ -1500,10 +1734,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1515,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>60</v>
@@ -1538,10 +1772,10 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1553,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>60</v>
@@ -1576,10 +1810,10 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1591,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>60</v>
@@ -1611,28 +1845,28 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1653,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1669,391 +1903,464 @@
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="13" max="13" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2080,7 +2387,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:M13">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4170E7D3-963D-4059-B08B-E3F467BF1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35D025-A92E-4F1F-8330-B620076ADF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>P_acn_batch</t>
   </si>
   <si>
-    <t>P_prop_batch</t>
-  </si>
-  <si>
     <t xml:space="preserve">propionate </t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>mix</t>
+  </si>
+  <si>
+    <t>P_pro_batch</t>
   </si>
 </sst>
 </file>
@@ -516,15 +516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -539,7 +539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7759700" y="2419350"/>
+          <a:off x="7734300" y="1809750"/>
           <a:ext cx="2298700" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -608,16 +608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>908050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -632,7 +632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874000" y="635000"/>
+          <a:off x="7721600" y="165100"/>
           <a:ext cx="2298700" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1617,28 +1617,28 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1655,13 +1655,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1801,19 +1801,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1839,34 +1839,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1931,24 +1931,24 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1957,22 +1957,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2241,18 +2241,18 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35D025-A92E-4F1F-8330-B620076ADF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E7205-BD00-4B14-8209-0FD9B5FFFD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>components</t>
   </si>
@@ -160,12 +160,6 @@
     <t>utility_bounds</t>
   </si>
   <si>
-    <t>[5,8] ; [50,100]</t>
-  </si>
-  <si>
-    <t>pH ; energy</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>but</t>
   </si>
   <si>
-    <t>input_glucose</t>
-  </si>
-  <si>
     <t>acetate</t>
   </si>
   <si>
@@ -232,15 +223,6 @@
     <t>protein</t>
   </si>
   <si>
-    <t>prot</t>
-  </si>
-  <si>
-    <t>glu, prot</t>
-  </si>
-  <si>
-    <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396+ 0.2*prot , prop == glu*0.0008586272965669681+pH*0.00128523604994718+0.2*prot, but == glu*0.00343240244820466+pH*-0.007526404480666873 + 0.02*prot</t>
-  </si>
-  <si>
     <t>bool , mix</t>
   </si>
   <si>
@@ -248,6 +230,27 @@
   </si>
   <si>
     <t>P_pro_batch</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>[50,100]</t>
+  </si>
+  <si>
+    <t>carbon_input</t>
+  </si>
+  <si>
+    <t>casine</t>
+  </si>
+  <si>
+    <t>glu, casine, pH</t>
+  </si>
+  <si>
+    <t>mixing_bounds</t>
+  </si>
+  <si>
+    <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396+ 0.2*casine , prop == glu*0.0008586272965669681+pH*0.00128523604994718+0.2*casine, but == glu*0.00343240244820466+pH*-0.007526404480666873 + 0.02*casine</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -463,6 +466,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,6 +707,192 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1229591</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3E4754-2311-7231-E733-2DF7CA3ED956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534728" y="1564409"/>
+          <a:ext cx="1933863" cy="1114137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>can also do multiple utilties eg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>   has_utility	utility</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>_bounds</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>water;energy	[lb,ub];</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[lb,ub]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65811</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1194955</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203FAEE8-0DB9-4E05-A0D5-DFE9C039AD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580584" y="1560945"/>
+          <a:ext cx="1129144" cy="1114137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> could be used to define bounds on how much can enter a reactor if  there is mixing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>460375</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -844,7 +1034,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1242,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1318,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1333,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1448,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1515,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1567,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1588,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,12 +1794,13 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -1634,20 +1825,23 @@
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>56</v>
+      <c r="I1" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1658,10 +1852,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0.26675654674413302</v>
@@ -1673,19 +1867,22 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1696,10 +1893,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0.28253562825913597</v>
@@ -1711,19 +1908,22 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1734,10 +1934,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
       </c>
       <c r="F4">
         <v>0.26792861197630802</v>
@@ -1749,19 +1949,22 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1772,10 +1975,10 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.376575631424244</v>
@@ -1787,33 +1990,36 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>0.23511946945464801</v>
@@ -1825,19 +2031,22 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1845,43 +2054,47 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7">
+        <v>65</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C12 C13:D13 E12 E10 I8:I11 H8:H12">
+  <conditionalFormatting sqref="C12 C13:D13 E12 E10 J8:J11 H8:I12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1889,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,10 +2126,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1931,24 +2144,24 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1957,22 +2170,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1986,7 +2199,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2010,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2051,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -2089,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -2127,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -2165,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -2176,7 +2389,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2203,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -2241,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E7205-BD00-4B14-8209-0FD9B5FFFD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B707CF-0267-460A-A924-712383E3312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2103,7 +2103,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>

--- a/excel files/data_propionibacteria.xlsx
+++ b/excel files/data_propionibacteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B707CF-0267-460A-A924-712383E3312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55289BF8-D4B9-4356-AF72-7097A4C55243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
   <si>
     <t>components</t>
   </si>
@@ -251,13 +251,22 @@
   </si>
   <si>
     <t>ace == glu*0.0021470197960763663+pH*0.010062441241181396+ 0.2*casine , prop == glu*0.0008586272965669681+pH*0.00128523604994718+0.2*casine, but == glu*0.00343240244820466+pH*-0.007526404480666873 + 0.02*casine</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>input_bounds</t>
+  </si>
+  <si>
+    <t>{'pH':[5,8]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +276,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -467,6 +483,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +692,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>compositions should be</a:t>
+            <a:t>compositions of the input should be</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -707,13 +726,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>11546</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1229591</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
@@ -813,13 +832,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>65811</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1194955</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -879,6 +898,93 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t> could be used to define bounds on how much can enter a reactor if  there is mixing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>877455</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>865910</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B9ACBD-8D70-43A0-A133-818763EC2C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2032000" y="1466273"/>
+          <a:ext cx="929410" cy="1125682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>add a col for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> special cases like pH </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>so it can be bound  eg:{pH:[5,8]}</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -1433,7 +1539,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1695,8 +1801,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>100</v>
+      <c r="D10" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1708,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1721,8 +1827,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>100</v>
+      <c r="D11" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1734,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1747,8 +1853,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>100</v>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1760,7 +1866,7 @@
         <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1778,29 +1884,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2DC50F-7E38-4E45-9660-C41E1DA6142A}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1811,37 +1918,40 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1851,18 +1961,18 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.26675654674413302</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -1870,19 +1980,22 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1892,18 +2005,18 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.28253562825913597</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1911,19 +2024,22 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1933,18 +2049,18 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.26792861197630802</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1952,19 +2068,22 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1974,18 +2093,18 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.376575631424244</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1993,19 +2112,22 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -2015,18 +2137,18 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>51</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.23511946945464801</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -2034,19 +2156,22 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2056,45 +2181,49 @@
       <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C12 C13:D13 E12 E10 J8:J11 H8:I12">
+  <conditionalFormatting sqref="C12:D12 F12 F10 K8:K11 I8:J12 C13:E13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2102,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730D4B9-BF36-445D-9853-EF3DA446843F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2620,7 +2749,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
